--- a/va_facility_data_2025-02-20/LaGrange VA Clinic - Facility Data.xlsx"; filename*=UTF-8''LaGrange%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/LaGrange VA Clinic - Facility Data.xlsx"; filename*=UTF-8''LaGrange%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4f3c34a41ab0479980d01bd4235eb0bb"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2105227d36e04fdd8aa257466161631a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R04df6fa6a99e406393c1a84509961a12"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra44e7708fabd4e189ef4f925c6d078e8"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R8b68cde5c9f148a9a6efc3725bb26ee4"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd6ac5212c75a4f6f8c5d9d1f412c5c5e"/>
   </x:sheets>
 </x:workbook>
 </file>
